--- a/Geartek.xlsx
+++ b/Geartek.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\iviewsense_beta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D010F4-002B-45C3-8C44-91B5896FE61E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="263">
   <si>
-    <t>DateTime</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -28,9 +31,6 @@
   </si>
   <si>
     <t>Model</t>
-  </si>
-  <si>
-    <t>Gear No.</t>
   </si>
   <si>
     <t>Stn</t>
@@ -42,58 +42,10 @@
     <t>Result</t>
   </si>
   <si>
-    <t>NPD (Bar)</t>
-  </si>
-  <si>
     <t>Flow</t>
   </si>
   <si>
     <t>Tempr</t>
-  </si>
-  <si>
-    <t>Leak CW</t>
-  </si>
-  <si>
-    <t>Leak CCW</t>
-  </si>
-  <si>
-    <t>Leak Pr CW</t>
-  </si>
-  <si>
-    <t>Leak Pr CCW</t>
-  </si>
-  <si>
-    <t>Eff CW</t>
-  </si>
-  <si>
-    <t>Eff CCW</t>
-  </si>
-  <si>
-    <t>TT CW</t>
-  </si>
-  <si>
-    <t>TT CCW</t>
-  </si>
-  <si>
-    <t>TT DIFF</t>
-  </si>
-  <si>
-    <t>Wr Slv Pr</t>
-  </si>
-  <si>
-    <t>Blk Psge Pr</t>
-  </si>
-  <si>
-    <t>TB 1</t>
-  </si>
-  <si>
-    <t>TB 2</t>
-  </si>
-  <si>
-    <t>Hys CW</t>
-  </si>
-  <si>
-    <t>Hys CCW</t>
   </si>
   <si>
     <t>Direction</t>
@@ -103,66 +55,6 @@
   </si>
   <si>
     <t>PCCW</t>
-  </si>
-  <si>
-    <t>CW_6.9</t>
-  </si>
-  <si>
-    <t>CCW_6.9</t>
-  </si>
-  <si>
-    <t>CW_9.7</t>
-  </si>
-  <si>
-    <t>CCW_9.7</t>
-  </si>
-  <si>
-    <t>CW_13.1</t>
-  </si>
-  <si>
-    <t>CCW_13.1</t>
-  </si>
-  <si>
-    <t>CW_17.2</t>
-  </si>
-  <si>
-    <t>CCW_17.2</t>
-  </si>
-  <si>
-    <t>CW_22.8</t>
-  </si>
-  <si>
-    <t>CCW_22.8</t>
-  </si>
-  <si>
-    <t>CW_31.0</t>
-  </si>
-  <si>
-    <t>CCW_31.0</t>
-  </si>
-  <si>
-    <t>CW_41.4</t>
-  </si>
-  <si>
-    <t>CCW_41.4</t>
-  </si>
-  <si>
-    <t>CW_55.2</t>
-  </si>
-  <si>
-    <t>CCW_55.2</t>
-  </si>
-  <si>
-    <t>CW_69.0</t>
-  </si>
-  <si>
-    <t>CCW_69.0</t>
-  </si>
-  <si>
-    <t>CW_90.0</t>
-  </si>
-  <si>
-    <t>CCW_90.0</t>
   </si>
   <si>
     <t>HFB64</t>
@@ -806,12 +698,126 @@
   <si>
     <t>V05GF 20078</t>
   </si>
+  <si>
+    <t>Gear_No</t>
+  </si>
+  <si>
+    <t>NPD</t>
+  </si>
+  <si>
+    <t>Leak_CW</t>
+  </si>
+  <si>
+    <t>Leak_CCW</t>
+  </si>
+  <si>
+    <t>Leak_Pr_CW</t>
+  </si>
+  <si>
+    <t>Leak_Pr_CCW</t>
+  </si>
+  <si>
+    <t>Eff_CW</t>
+  </si>
+  <si>
+    <t>Eff_CCW</t>
+  </si>
+  <si>
+    <t>TT_CW</t>
+  </si>
+  <si>
+    <t>TT_CCW</t>
+  </si>
+  <si>
+    <t>Wr_Slv_Pr</t>
+  </si>
+  <si>
+    <t>Blk_Psge_Pr</t>
+  </si>
+  <si>
+    <t>TB_1</t>
+  </si>
+  <si>
+    <t>TB_2</t>
+  </si>
+  <si>
+    <t>Hys_CW</t>
+  </si>
+  <si>
+    <t>Hys_CCW</t>
+  </si>
+  <si>
+    <t>Date_Time</t>
+  </si>
+  <si>
+    <t>TT_Diff</t>
+  </si>
+  <si>
+    <t>CW_1</t>
+  </si>
+  <si>
+    <t>CCW_1</t>
+  </si>
+  <si>
+    <t>CW_2</t>
+  </si>
+  <si>
+    <t>CCW_2</t>
+  </si>
+  <si>
+    <t>CW_3</t>
+  </si>
+  <si>
+    <t>CCW_3</t>
+  </si>
+  <si>
+    <t>CW_4</t>
+  </si>
+  <si>
+    <t>CCW_4</t>
+  </si>
+  <si>
+    <t>CW_5</t>
+  </si>
+  <si>
+    <t>CCW_5</t>
+  </si>
+  <si>
+    <t>CW_6</t>
+  </si>
+  <si>
+    <t>CCW_6</t>
+  </si>
+  <si>
+    <t>CW_7</t>
+  </si>
+  <si>
+    <t>CCW_7</t>
+  </si>
+  <si>
+    <t>CW_8</t>
+  </si>
+  <si>
+    <t>CCW_8</t>
+  </si>
+  <si>
+    <t>CW_9</t>
+  </si>
+  <si>
+    <t>CCW_9</t>
+  </si>
+  <si>
+    <t>CW_10</t>
+  </si>
+  <si>
+    <t>CCW_10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +855,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -895,7 +909,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -927,9 +941,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,6 +993,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1136,185 +1186,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AW209"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AB1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="AQ1" t="s">
-        <v>42</v>
+        <v>256</v>
       </c>
       <c r="AR1" t="s">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="AS1" t="s">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="AT1" t="s">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AU1" t="s">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="AV1" t="s">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="AW1" t="s">
-        <v>48</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43617.015775462962</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>11.36</v>
@@ -1425,27 +1475,27 @@
         <v>-6.88</v>
       </c>
     </row>
-    <row r="3" spans="1:49">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43617.017743055556</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>11.35</v>
@@ -1556,27 +1606,27 @@
         <v>-7.94</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43617.027719907404</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J4">
         <v>11.36</v>
@@ -1687,27 +1737,27 @@
         <v>-8.7100000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43617.030671296299</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J5">
         <v>11.01</v>
@@ -1818,27 +1868,27 @@
         <v>-6.59</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43617.033437500002</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J6">
         <v>11.35</v>
@@ -1949,27 +1999,27 @@
         <v>-7.27</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43617.035613425927</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J7">
         <v>10.95</v>
@@ -2080,27 +2130,27 @@
         <v>-6.74</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43617.037048611113</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <v>10.81</v>
@@ -2211,27 +2261,27 @@
         <v>-7.19</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43617.038495370369</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J9">
         <v>11.45</v>
@@ -2342,27 +2392,27 @@
         <v>-7.34</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43617.040983796294</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J10">
         <v>11.34</v>
@@ -2473,27 +2523,27 @@
         <v>-7.49</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43617.042604166665</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>11.6</v>
@@ -2604,27 +2654,27 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43617.046469907407</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <v>11.33</v>
@@ -2735,27 +2785,27 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43617.072500000002</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J13">
         <v>11.04</v>
@@ -2866,27 +2916,27 @@
         <v>-7.16</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43617.074560185189</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J14">
         <v>10.79</v>
@@ -2997,27 +3047,27 @@
         <v>-6.77</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43617.076793981483</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J15">
         <v>11.35</v>
@@ -3128,27 +3178,27 @@
         <v>-7.62</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43617.079872685186</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J16">
         <v>11.34</v>
@@ -3241,27 +3291,27 @@
         <v>-5.98</v>
       </c>
     </row>
-    <row r="17" spans="1:49">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43617.081620370373</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J17">
         <v>11.36</v>
@@ -3354,27 +3404,27 @@
         <v>-5.38</v>
       </c>
     </row>
-    <row r="18" spans="1:49">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43617.083495370367</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J18">
         <v>11.26</v>
@@ -3467,24 +3517,24 @@
         <v>-5.47</v>
       </c>
     </row>
-    <row r="19" spans="1:49">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43617.086747685185</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J19">
         <v>11.38</v>
@@ -3529,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z19">
         <v>21.88</v>
@@ -3553,51 +3603,51 @@
         <v>-3.4</v>
       </c>
       <c r="AJ19" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AK19">
         <v>-3.62</v>
       </c>
       <c r="AL19" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AM19">
         <v>-3.67</v>
       </c>
       <c r="AN19" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AO19">
         <v>-4</v>
       </c>
       <c r="AP19" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AQ19">
         <v>-4.05</v>
       </c>
     </row>
-    <row r="20" spans="1:49">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43617.088379629633</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J20">
         <v>11.28</v>
@@ -3690,27 +3740,27 @@
         <v>-6.28</v>
       </c>
     </row>
-    <row r="21" spans="1:49">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43617.093553240738</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J21">
         <v>11.36</v>
@@ -3803,27 +3853,27 @@
         <v>-5.28</v>
       </c>
     </row>
-    <row r="22" spans="1:49">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43617.096122685187</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J22">
         <v>11.35</v>
@@ -3916,27 +3966,27 @@
         <v>-6.35</v>
       </c>
     </row>
-    <row r="23" spans="1:49">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43617.098553240743</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J23">
         <v>11.37</v>
@@ -4029,27 +4079,27 @@
         <v>-6.08</v>
       </c>
     </row>
-    <row r="24" spans="1:49">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43617.101238425923</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J24">
         <v>11.39</v>
@@ -4142,27 +4192,27 @@
         <v>-5.82</v>
       </c>
     </row>
-    <row r="25" spans="1:49">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43617.102754629632</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J25">
         <v>11.15</v>
@@ -4255,27 +4305,27 @@
         <v>-5.81</v>
       </c>
     </row>
-    <row r="26" spans="1:49">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43617.105115740742</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J26">
         <v>11.36</v>
@@ -4368,27 +4418,27 @@
         <v>-5.4</v>
       </c>
     </row>
-    <row r="27" spans="1:49">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43617.137129629627</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J27">
         <v>11.35</v>
@@ -4481,27 +4531,27 @@
         <v>-5.51</v>
       </c>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43617.140648148146</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J28">
         <v>11.33</v>
@@ -4594,27 +4644,27 @@
         <v>-6.74</v>
       </c>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43617.142152777778</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J29">
         <v>11.35</v>
@@ -4707,27 +4757,27 @@
         <v>-5.55</v>
       </c>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43617.143923611111</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J30">
         <v>11.41</v>
@@ -4820,27 +4870,27 @@
         <v>-5.89</v>
       </c>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43617.145694444444</v>
       </c>
       <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
-      </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J31">
         <v>11.29</v>
@@ -4951,27 +5001,27 @@
         <v>-6.6</v>
       </c>
     </row>
-    <row r="32" spans="1:49">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43617.147361111114</v>
       </c>
       <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" t="s">
-        <v>87</v>
-      </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J32">
         <v>11.25</v>
@@ -5082,27 +5132,27 @@
         <v>-7.01</v>
       </c>
     </row>
-    <row r="33" spans="1:49">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43617.155821759261</v>
       </c>
       <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>87</v>
-      </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J33">
         <v>11.25</v>
@@ -5213,24 +5263,24 @@
         <v>-6.63</v>
       </c>
     </row>
-    <row r="34" spans="1:49">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43617.182164351849</v>
       </c>
       <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
         <v>49</v>
       </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J34">
         <v>11.31</v>
@@ -5341,27 +5391,27 @@
         <v>-7.64</v>
       </c>
     </row>
-    <row r="35" spans="1:49">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43617.183842592596</v>
       </c>
       <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>87</v>
-      </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J35">
         <v>11.3</v>
@@ -5472,27 +5522,27 @@
         <v>-7.08</v>
       </c>
     </row>
-    <row r="36" spans="1:49">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43617.185891203706</v>
       </c>
       <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J36">
         <v>11.23</v>
@@ -5603,27 +5653,27 @@
         <v>-7.08</v>
       </c>
     </row>
-    <row r="37" spans="1:49">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43617.187986111108</v>
       </c>
       <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
         <v>49</v>
       </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" t="s">
-        <v>87</v>
-      </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J37">
         <v>11.24</v>
@@ -5734,27 +5784,27 @@
         <v>-7.39</v>
       </c>
     </row>
-    <row r="38" spans="1:49">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43617.217847222222</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J38">
         <v>11.35</v>
@@ -5865,27 +5915,27 @@
         <v>-6.96</v>
       </c>
     </row>
-    <row r="39" spans="1:49">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43617.23951388889</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J39">
         <v>11.34</v>
@@ -5996,27 +6046,27 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="40" spans="1:49">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43617.240925925929</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J40">
         <v>11.38</v>
@@ -6127,27 +6177,27 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:49">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43617.242372685185</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J41">
         <v>11.41</v>
@@ -6258,27 +6308,27 @@
         <v>-7.23</v>
       </c>
     </row>
-    <row r="42" spans="1:49">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43617.243773148148</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J42">
         <v>11.38</v>
@@ -6389,27 +6439,27 @@
         <v>-6.83</v>
       </c>
     </row>
-    <row r="43" spans="1:49">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43617.246296296296</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J43">
         <v>11.38</v>
@@ -6520,27 +6570,27 @@
         <v>-7.34</v>
       </c>
     </row>
-    <row r="44" spans="1:49">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43617.247662037036</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J44">
         <v>11.41</v>
@@ -6651,27 +6701,27 @@
         <v>-7.17</v>
       </c>
     </row>
-    <row r="45" spans="1:49">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43617.252303240741</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J45">
         <v>11.44</v>
@@ -6782,27 +6832,27 @@
         <v>-7.57</v>
       </c>
     </row>
-    <row r="46" spans="1:49">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43617.253750000003</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J46">
         <v>11.34</v>
@@ -6913,27 +6963,27 @@
         <v>-6.85</v>
       </c>
     </row>
-    <row r="47" spans="1:49">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43617.255185185182</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J47">
         <v>11.35</v>
@@ -7044,27 +7094,27 @@
         <v>-6.57</v>
       </c>
     </row>
-    <row r="48" spans="1:49">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43617.256793981483</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J48">
         <v>11.39</v>
@@ -7175,27 +7225,27 @@
         <v>-7.56</v>
       </c>
     </row>
-    <row r="49" spans="1:49">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43617.29420138889</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J49">
         <v>11.38</v>
@@ -7306,27 +7356,27 @@
         <v>-6.67</v>
       </c>
     </row>
-    <row r="50" spans="1:49">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43617.295624999999</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J50">
         <v>11.36</v>
@@ -7437,27 +7487,27 @@
         <v>-6.71</v>
       </c>
     </row>
-    <row r="51" spans="1:49">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43617.3</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J51">
         <v>11.38</v>
@@ -7568,27 +7618,27 @@
         <v>-7.17</v>
       </c>
     </row>
-    <row r="52" spans="1:49">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43617.306226851855</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J52">
         <v>11.4</v>
@@ -7699,27 +7749,27 @@
         <v>-7.17</v>
       </c>
     </row>
-    <row r="53" spans="1:49">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43617.312430555554</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J53">
         <v>11.36</v>
@@ -7830,27 +7880,27 @@
         <v>-6.57</v>
       </c>
     </row>
-    <row r="54" spans="1:49">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43617.31695601852</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J54">
         <v>11.36</v>
@@ -7961,27 +8011,27 @@
         <v>-6.28</v>
       </c>
     </row>
-    <row r="55" spans="1:49">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43617.322141203702</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J55">
         <v>11.34</v>
@@ -8092,27 +8142,27 @@
         <v>-6.92</v>
       </c>
     </row>
-    <row r="56" spans="1:49">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43617.324814814812</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J56">
         <v>11.36</v>
@@ -8223,27 +8273,27 @@
         <v>-6.78</v>
       </c>
     </row>
-    <row r="57" spans="1:49">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43617.326550925929</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J57">
         <v>11.36</v>
@@ -8354,27 +8404,27 @@
         <v>-6.98</v>
       </c>
     </row>
-    <row r="58" spans="1:49">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43617.3280787037</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J58">
         <v>11.4</v>
@@ -8485,27 +8535,27 @@
         <v>-6.81</v>
       </c>
     </row>
-    <row r="59" spans="1:49">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43617.33148148148</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J59">
         <v>11.34</v>
@@ -8616,27 +8666,27 @@
         <v>-6.75</v>
       </c>
     </row>
-    <row r="60" spans="1:49">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43617.334317129629</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J60">
         <v>11.34</v>
@@ -8747,27 +8797,27 @@
         <v>-7.67</v>
       </c>
     </row>
-    <row r="61" spans="1:49">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43617.3359375</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J61">
         <v>11.41</v>
@@ -8878,27 +8928,27 @@
         <v>-7.19</v>
       </c>
     </row>
-    <row r="62" spans="1:49">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43617.339085648149</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J62">
         <v>11.23</v>
@@ -9009,27 +9059,27 @@
         <v>-7.98</v>
       </c>
     </row>
-    <row r="63" spans="1:49">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43617.351539351854</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J63">
         <v>11.34</v>
@@ -9140,27 +9190,27 @@
         <v>-7.26</v>
       </c>
     </row>
-    <row r="64" spans="1:49">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43617.356932870367</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J64">
         <v>11.32</v>
@@ -9271,27 +9321,27 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="65" spans="1:49">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43617.359768518516</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65" t="s">
         <v>86</v>
       </c>
-      <c r="D65" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" t="s">
-        <v>124</v>
-      </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J65">
         <v>11.34</v>
@@ -9402,27 +9452,27 @@
         <v>-6.74</v>
       </c>
     </row>
-    <row r="66" spans="1:49">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43617.361516203702</v>
       </c>
       <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" t="s">
         <v>49</v>
       </c>
-      <c r="C66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>87</v>
       </c>
-      <c r="E66" t="s">
-        <v>125</v>
-      </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J66">
         <v>11.2</v>
@@ -9533,27 +9583,27 @@
         <v>-7.37</v>
       </c>
     </row>
-    <row r="67" spans="1:49">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43617.363067129627</v>
       </c>
       <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" t="s">
         <v>49</v>
       </c>
-      <c r="C67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" t="s">
-        <v>87</v>
-      </c>
       <c r="E67" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J67">
         <v>11.21</v>
@@ -9664,27 +9714,27 @@
         <v>-7.88</v>
       </c>
     </row>
-    <row r="68" spans="1:49">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43617.364606481482</v>
       </c>
       <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" t="s">
         <v>49</v>
       </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>87</v>
-      </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J68">
         <v>11.21</v>
@@ -9795,27 +9845,27 @@
         <v>-7.53</v>
       </c>
     </row>
-    <row r="69" spans="1:49">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43617.366354166668</v>
       </c>
       <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" t="s">
         <v>49</v>
       </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" t="s">
-        <v>87</v>
-      </c>
       <c r="E69" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J69">
         <v>11.22</v>
@@ -9926,27 +9976,27 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="70" spans="1:49">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43617.368414351855</v>
       </c>
       <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" t="s">
         <v>49</v>
       </c>
-      <c r="C70" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" t="s">
-        <v>87</v>
-      </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J70">
         <v>11.25</v>
@@ -10057,27 +10107,27 @@
         <v>-7.64</v>
       </c>
     </row>
-    <row r="71" spans="1:49">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43617.37090277778</v>
       </c>
       <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" t="s">
         <v>49</v>
       </c>
-      <c r="C71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" t="s">
-        <v>87</v>
-      </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="F71" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J71">
         <v>11.25</v>
@@ -10188,27 +10238,27 @@
         <v>-9.2899999999999991</v>
       </c>
     </row>
-    <row r="72" spans="1:49">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43617.372372685182</v>
       </c>
       <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" t="s">
         <v>49</v>
       </c>
-      <c r="C72" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" t="s">
-        <v>87</v>
-      </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J72">
         <v>11.2</v>
@@ -10319,27 +10369,27 @@
         <v>-8.09</v>
       </c>
     </row>
-    <row r="73" spans="1:49">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43617.374050925922</v>
       </c>
       <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" t="s">
         <v>49</v>
       </c>
-      <c r="C73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" t="s">
-        <v>87</v>
-      </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J73">
         <v>11.26</v>
@@ -10450,27 +10500,27 @@
         <v>-8.44</v>
       </c>
     </row>
-    <row r="74" spans="1:49">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43617.375590277778</v>
       </c>
       <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" t="s">
         <v>49</v>
       </c>
-      <c r="C74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" t="s">
-        <v>87</v>
-      </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J74">
         <v>11.14</v>
@@ -10581,27 +10631,27 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="75" spans="1:49">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43617.378761574073</v>
       </c>
       <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" t="s">
         <v>49</v>
       </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
-        <v>87</v>
-      </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J75">
         <v>11.25</v>
@@ -10712,27 +10762,27 @@
         <v>-7.88</v>
       </c>
     </row>
-    <row r="76" spans="1:49">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43617.381157407406</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="E76" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J76">
         <v>11.36</v>
@@ -10843,27 +10893,27 @@
         <v>-7.39</v>
       </c>
     </row>
-    <row r="77" spans="1:49">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43617.396215277775</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J77">
         <v>11.27</v>
@@ -10974,27 +11024,27 @@
         <v>-7.35</v>
       </c>
     </row>
-    <row r="78" spans="1:49">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43617.398530092592</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J78">
         <v>11.16</v>
@@ -11105,27 +11155,27 @@
         <v>-7.25</v>
       </c>
     </row>
-    <row r="79" spans="1:49">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43617.399988425925</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="F79" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J79">
         <v>11.23</v>
@@ -11236,27 +11286,27 @@
         <v>-6.91</v>
       </c>
     </row>
-    <row r="80" spans="1:49">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43617.403020833335</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J80">
         <v>11.26</v>
@@ -11367,27 +11417,27 @@
         <v>-7.55</v>
       </c>
     </row>
-    <row r="81" spans="1:49">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43617.405138888891</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J81">
         <v>11.29</v>
@@ -11498,27 +11548,27 @@
         <v>-8.4700000000000006</v>
       </c>
     </row>
-    <row r="82" spans="1:49">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43617.406597222223</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="F82" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J82">
         <v>11.22</v>
@@ -11629,27 +11679,27 @@
         <v>-7.36</v>
       </c>
     </row>
-    <row r="83" spans="1:49">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43617.408078703702</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J83">
         <v>11.25</v>
@@ -11760,27 +11810,27 @@
         <v>-8.56</v>
       </c>
     </row>
-    <row r="84" spans="1:49">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43617.409849537034</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="F84" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J84">
         <v>11.24</v>
@@ -11891,27 +11941,27 @@
         <v>-8.42</v>
       </c>
     </row>
-    <row r="85" spans="1:49">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43617.41133101852</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J85">
         <v>11.26</v>
@@ -12022,27 +12072,27 @@
         <v>-7.77</v>
       </c>
     </row>
-    <row r="86" spans="1:49">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43617.414212962962</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F86" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J86">
         <v>11.21</v>
@@ -12153,27 +12203,27 @@
         <v>-7.59</v>
       </c>
     </row>
-    <row r="87" spans="1:49">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43617.415775462963</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E87" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="F87" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J87">
         <v>11.19</v>
@@ -12284,27 +12334,27 @@
         <v>-7.38</v>
       </c>
     </row>
-    <row r="88" spans="1:49">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43617.418541666666</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E88" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="F88" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J88">
         <v>11.23</v>
@@ -12415,27 +12465,27 @@
         <v>-7.6</v>
       </c>
     </row>
-    <row r="89" spans="1:49">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43617.421527777777</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J89">
         <v>11.36</v>
@@ -12546,27 +12596,27 @@
         <v>-7.49</v>
       </c>
     </row>
-    <row r="90" spans="1:49">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43617.423356481479</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F90" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J90">
         <v>11.35</v>
@@ -12677,27 +12727,27 @@
         <v>-7.16</v>
       </c>
     </row>
-    <row r="91" spans="1:49">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43617.426180555558</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="F91" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J91">
         <v>11.34</v>
@@ -12808,27 +12858,27 @@
         <v>-6.58</v>
       </c>
     </row>
-    <row r="92" spans="1:49">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43617.42796296296</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="F92" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J92">
         <v>11.37</v>
@@ -12939,27 +12989,27 @@
         <v>-7.56</v>
       </c>
     </row>
-    <row r="93" spans="1:49">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43617.430532407408</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="F93" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J93">
         <v>11.33</v>
@@ -13070,27 +13120,27 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="94" spans="1:49">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43617.432060185187</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="F94" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J94">
         <v>11.41</v>
@@ -13201,27 +13251,27 @@
         <v>-6.88</v>
       </c>
     </row>
-    <row r="95" spans="1:49">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43617.433587962965</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="F95" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J95">
         <v>11.34</v>
@@ -13332,27 +13382,27 @@
         <v>-7.39</v>
       </c>
     </row>
-    <row r="96" spans="1:49">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43617.435162037036</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D96" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="F96" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H96" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J96">
         <v>11.34</v>
@@ -13463,27 +13513,27 @@
         <v>-7.29</v>
       </c>
     </row>
-    <row r="97" spans="1:49">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43617.438067129631</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J97">
         <v>11.36</v>
@@ -13594,24 +13644,24 @@
         <v>-7.05</v>
       </c>
     </row>
-    <row r="98" spans="1:49">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43617.439976851849</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="F98" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J98">
         <v>11.37</v>
@@ -13722,27 +13772,27 @@
         <v>-7.1</v>
       </c>
     </row>
-    <row r="99" spans="1:49">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43617.442476851851</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D99" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J99">
         <v>11.36</v>
@@ -13853,27 +13903,27 @@
         <v>-7.22</v>
       </c>
     </row>
-    <row r="100" spans="1:49">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43617.446550925924</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="F100" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J100">
         <v>11.34</v>
@@ -13984,27 +14034,27 @@
         <v>-6.49</v>
       </c>
     </row>
-    <row r="101" spans="1:49">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43617.448194444441</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="F101" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J101">
         <v>11.38</v>
@@ -14115,27 +14165,27 @@
         <v>-6.99</v>
       </c>
     </row>
-    <row r="102" spans="1:49">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43617.449837962966</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E102" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="F102" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J102">
         <v>11.42</v>
@@ -14246,27 +14296,27 @@
         <v>-6.66</v>
       </c>
     </row>
-    <row r="103" spans="1:49">
+    <row r="103" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43617.452650462961</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="F103" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J103">
         <v>11.33</v>
@@ -14377,27 +14427,27 @@
         <v>-7.89</v>
       </c>
     </row>
-    <row r="104" spans="1:49">
+    <row r="104" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43617.454895833333</v>
       </c>
       <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" t="s">
         <v>49</v>
       </c>
-      <c r="C104" t="s">
-        <v>86</v>
-      </c>
-      <c r="D104" t="s">
-        <v>87</v>
-      </c>
       <c r="E104" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="F104" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J104">
         <v>11.22</v>
@@ -14508,24 +14558,24 @@
         <v>-7.43</v>
       </c>
     </row>
-    <row r="105" spans="1:49">
+    <row r="105" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43617.461168981485</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="H105" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J105">
         <v>11.36</v>
@@ -14636,24 +14686,24 @@
         <v>-7.49</v>
       </c>
     </row>
-    <row r="106" spans="1:49">
+    <row r="106" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43617.469039351854</v>
       </c>
       <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" t="s">
         <v>49</v>
       </c>
-      <c r="C106" t="s">
-        <v>86</v>
-      </c>
-      <c r="D106" t="s">
-        <v>87</v>
-      </c>
       <c r="E106" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H106" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J106">
         <v>11.23</v>
@@ -14764,21 +14814,21 @@
         <v>-8.15</v>
       </c>
     </row>
-    <row r="107" spans="1:49">
+    <row r="107" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43617.5546412037</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="H107" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J107">
         <v>11.25</v>
@@ -14889,24 +14939,24 @@
         <v>-7.63</v>
       </c>
     </row>
-    <row r="108" spans="1:49">
+    <row r="108" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43617.55777777778</v>
       </c>
       <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" t="s">
         <v>49</v>
       </c>
-      <c r="C108" t="s">
-        <v>86</v>
-      </c>
-      <c r="D108" t="s">
-        <v>87</v>
-      </c>
       <c r="E108" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="H108" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J108">
         <v>11.22</v>
@@ -15017,27 +15067,27 @@
         <v>-6.84</v>
       </c>
     </row>
-    <row r="109" spans="1:49">
+    <row r="109" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43617.559756944444</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E109" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="F109" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J109">
         <v>11.36</v>
@@ -15148,27 +15198,27 @@
         <v>-7.04</v>
       </c>
     </row>
-    <row r="110" spans="1:49">
+    <row r="110" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43617.561747685184</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="F110" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H110" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J110">
         <v>11.41</v>
@@ -15279,27 +15329,27 @@
         <v>-6.49</v>
       </c>
     </row>
-    <row r="111" spans="1:49">
+    <row r="111" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43617.56322916667</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E111" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="F111" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J111">
         <v>11.38</v>
@@ -15410,27 +15460,27 @@
         <v>-6.76</v>
       </c>
     </row>
-    <row r="112" spans="1:49">
+    <row r="112" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43617.565520833334</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="F112" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H112" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J112">
         <v>11.38</v>
@@ -15541,27 +15591,27 @@
         <v>-6.97</v>
       </c>
     </row>
-    <row r="113" spans="1:49">
+    <row r="113" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43617.567650462966</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E113" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="F113" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J113">
         <v>11.33</v>
@@ -15672,27 +15722,27 @@
         <v>-6.77</v>
       </c>
     </row>
-    <row r="114" spans="1:49">
+    <row r="114" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43617.569247685184</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E114" t="s">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="F114" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H114" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J114">
         <v>11.49</v>
@@ -15803,27 +15853,27 @@
         <v>-7.12</v>
       </c>
     </row>
-    <row r="115" spans="1:49">
+    <row r="115" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43617.572939814818</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E115" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="F115" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H115" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J115">
         <v>11.36</v>
@@ -15934,27 +15984,27 @@
         <v>-7.27</v>
       </c>
     </row>
-    <row r="116" spans="1:49">
+    <row r="116" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43617.574363425927</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="F116" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J116">
         <v>11.32</v>
@@ -16065,27 +16115,27 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="117" spans="1:49">
+    <row r="117" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43617.57571759259</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E117" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="F117" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H117" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J117">
         <v>11.36</v>
@@ -16196,27 +16246,27 @@
         <v>-7.21</v>
       </c>
     </row>
-    <row r="118" spans="1:49">
+    <row r="118" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43617.577349537038</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E118" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="F118" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J118">
         <v>11.38</v>
@@ -16327,27 +16377,27 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="119" spans="1:49">
+    <row r="119" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43617.578703703701</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E119" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="F119" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H119" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J119">
         <v>11.34</v>
@@ -16458,27 +16508,27 @@
         <v>-6.88</v>
       </c>
     </row>
-    <row r="120" spans="1:49">
+    <row r="120" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43617.580092592594</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E120" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="F120" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J120">
         <v>11.36</v>
@@ -16589,27 +16639,27 @@
         <v>-7.41</v>
       </c>
     </row>
-    <row r="121" spans="1:49">
+    <row r="121" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43617.582175925927</v>
       </c>
       <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" t="s">
         <v>49</v>
       </c>
-      <c r="C121" t="s">
-        <v>86</v>
-      </c>
-      <c r="D121" t="s">
-        <v>87</v>
-      </c>
       <c r="E121" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="F121" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H121" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J121">
         <v>11.03</v>
@@ -16720,27 +16770,27 @@
         <v>-8.16</v>
       </c>
     </row>
-    <row r="122" spans="1:49">
+    <row r="122" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43617.583657407406</v>
       </c>
       <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" t="s">
         <v>49</v>
       </c>
-      <c r="C122" t="s">
-        <v>86</v>
-      </c>
-      <c r="D122" t="s">
-        <v>87</v>
-      </c>
       <c r="E122" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="F122" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J122">
         <v>11.23</v>
@@ -16851,27 +16901,27 @@
         <v>-7.81</v>
       </c>
     </row>
-    <row r="123" spans="1:49">
+    <row r="123" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43617.585578703707</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D123" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="F123" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H123" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J123">
         <v>11.39</v>
@@ -16982,27 +17032,27 @@
         <v>-7.11</v>
       </c>
     </row>
-    <row r="124" spans="1:49">
+    <row r="124" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43617.588460648149</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="F124" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J124">
         <v>10.95</v>
@@ -17113,27 +17163,27 @@
         <v>-6.6</v>
       </c>
     </row>
-    <row r="125" spans="1:49">
+    <row r="125" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43617.590995370374</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="F125" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H125" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J125">
         <v>11.33</v>
@@ -17244,27 +17294,27 @@
         <v>-7.23</v>
       </c>
     </row>
-    <row r="126" spans="1:49">
+    <row r="126" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43617.592615740738</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="F126" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J126">
         <v>11.48</v>
@@ -17375,27 +17425,27 @@
         <v>-7.16</v>
       </c>
     </row>
-    <row r="127" spans="1:49">
+    <row r="127" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43617.594166666669</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C127" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="F127" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H127" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J127">
         <v>10.7</v>
@@ -17506,27 +17556,27 @@
         <v>-7.18</v>
       </c>
     </row>
-    <row r="128" spans="1:49">
+    <row r="128" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43617.59746527778</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C128" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="F128" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J128">
         <v>11.36</v>
@@ -17637,24 +17687,24 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="129" spans="1:49">
+    <row r="129" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43617.599247685182</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H129" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J129">
         <v>11.03</v>
@@ -17765,27 +17815,27 @@
         <v>-8.65</v>
       </c>
     </row>
-    <row r="130" spans="1:49">
+    <row r="130" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43617.600925925923</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F130" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H130" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J130">
         <v>11.33</v>
@@ -17896,27 +17946,27 @@
         <v>-7.83</v>
       </c>
     </row>
-    <row r="131" spans="1:49">
+    <row r="131" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43617.602592592593</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="F131" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J131">
         <v>10.79</v>
@@ -18027,27 +18077,27 @@
         <v>-6.78</v>
       </c>
     </row>
-    <row r="132" spans="1:49">
+    <row r="132" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43617.604756944442</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C132" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="F132" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H132" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J132">
         <v>11.03</v>
@@ -18158,27 +18208,27 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="133" spans="1:49">
+    <row r="133" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43617.606759259259</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J133">
         <v>11.32</v>
@@ -18289,27 +18339,27 @@
         <v>-7.4</v>
       </c>
     </row>
-    <row r="134" spans="1:49">
+    <row r="134" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43617.609027777777</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C134" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="F134" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H134" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J134">
         <v>10.88</v>
@@ -18420,27 +18470,27 @@
         <v>-7.06</v>
       </c>
     </row>
-    <row r="135" spans="1:49">
+    <row r="135" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43617.612118055556</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J135">
         <v>11.35</v>
@@ -18551,27 +18601,27 @@
         <v>-7.29</v>
       </c>
     </row>
-    <row r="136" spans="1:49">
+    <row r="136" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43617.615960648145</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="F136" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J136">
         <v>11.36</v>
@@ -18682,27 +18732,27 @@
         <v>-6.94</v>
       </c>
     </row>
-    <row r="137" spans="1:49">
+    <row r="137" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43617.618495370371</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="F137" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J137">
         <v>10.91</v>
@@ -18813,27 +18863,27 @@
         <v>-8.07</v>
       </c>
     </row>
-    <row r="138" spans="1:49">
+    <row r="138" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43617.620034722226</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="F138" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H138" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J138">
         <v>10.84</v>
@@ -18944,27 +18994,27 @@
         <v>-6.54</v>
       </c>
     </row>
-    <row r="139" spans="1:49">
+    <row r="139" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43617.621678240743</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="F139" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J139">
         <v>11.08</v>
@@ -19075,27 +19125,27 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="140" spans="1:49">
+    <row r="140" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43617.623263888891</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="F140" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H140" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J140">
         <v>10.67</v>
@@ -19206,24 +19256,24 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="141" spans="1:49">
+    <row r="141" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43617.643773148149</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J141">
         <v>10.81</v>
@@ -19271,7 +19321,7 @@
         <v>21.62</v>
       </c>
       <c r="Z141" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD141">
         <v>4.62</v>
@@ -19325,36 +19375,36 @@
         <v>7.79</v>
       </c>
       <c r="AU141" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AV141">
         <v>7.76</v>
       </c>
       <c r="AW141" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:49">
+    <row r="142" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43617.645358796297</v>
       </c>
       <c r="B142" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="F142" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H142" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J142">
         <v>10.86</v>
@@ -19465,27 +19515,27 @@
         <v>-8.07</v>
       </c>
     </row>
-    <row r="143" spans="1:49">
+    <row r="143" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43617.647141203706</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="F143" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J143">
         <v>11.33</v>
@@ -19596,27 +19646,27 @@
         <v>-6.92</v>
       </c>
     </row>
-    <row r="144" spans="1:49">
+    <row r="144" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43617.648761574077</v>
       </c>
       <c r="B144" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C144" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="F144" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H144" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J144">
         <v>11.16</v>
@@ -19727,27 +19777,27 @@
         <v>-7.14</v>
       </c>
     </row>
-    <row r="145" spans="1:49">
+    <row r="145" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43617.654305555552</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C145" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="F145" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H145" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J145">
         <v>11.35</v>
@@ -19858,24 +19908,24 @@
         <v>-7.42</v>
       </c>
     </row>
-    <row r="146" spans="1:49">
+    <row r="146" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43617.660393518519</v>
       </c>
       <c r="B146" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="H146" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J146">
         <v>11.34</v>
@@ -19986,27 +20036,27 @@
         <v>-6.51</v>
       </c>
     </row>
-    <row r="147" spans="1:49">
+    <row r="147" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43617.66201388889</v>
       </c>
       <c r="B147" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="F147" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H147" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J147">
         <v>11.14</v>
@@ -20117,27 +20167,27 @@
         <v>-7.69</v>
       </c>
     </row>
-    <row r="148" spans="1:49">
+    <row r="148" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43617.665671296294</v>
       </c>
       <c r="B148" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E148" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="F148" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J148">
         <v>11.36</v>
@@ -20248,27 +20298,27 @@
         <v>-6.57</v>
       </c>
     </row>
-    <row r="149" spans="1:49">
+    <row r="149" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43617.668206018519</v>
       </c>
       <c r="B149" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E149" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="F149" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H149" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J149">
         <v>11.39</v>
@@ -20379,24 +20429,24 @@
         <v>-6.49</v>
       </c>
     </row>
-    <row r="150" spans="1:49">
+    <row r="150" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43617.692002314812</v>
       </c>
       <c r="B150" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F150" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J150">
         <v>10.62</v>
@@ -20507,27 +20557,27 @@
         <v>-8.77</v>
       </c>
     </row>
-    <row r="151" spans="1:49">
+    <row r="151" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43617.694953703707</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="F151" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H151" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J151">
         <v>10.69</v>
@@ -20638,27 +20688,27 @@
         <v>-7.32</v>
       </c>
     </row>
-    <row r="152" spans="1:49">
+    <row r="152" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43617.698645833334</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E152" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="F152" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J152">
         <v>11.35</v>
@@ -20769,27 +20819,27 @@
         <v>-7.48</v>
       </c>
     </row>
-    <row r="153" spans="1:49">
+    <row r="153" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43617.702349537038</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E153" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="F153" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H153" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J153">
         <v>11.36</v>
@@ -20900,27 +20950,27 @@
         <v>-7.21</v>
       </c>
     </row>
-    <row r="154" spans="1:49">
+    <row r="154" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43617.704930555556</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E154" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="F154" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J154">
         <v>11.33</v>
@@ -21031,24 +21081,24 @@
         <v>-7.44</v>
       </c>
     </row>
-    <row r="155" spans="1:49">
+    <row r="155" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43617.726574074077</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D155" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E155" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="H155" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J155">
         <v>11.39</v>
@@ -21159,24 +21209,24 @@
         <v>-7.08</v>
       </c>
     </row>
-    <row r="156" spans="1:49">
+    <row r="156" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43617.740405092591</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C156" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E156" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="H156" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J156">
         <v>11.34</v>
@@ -21287,24 +21337,24 @@
         <v>-6.87</v>
       </c>
     </row>
-    <row r="157" spans="1:49">
+    <row r="157" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43617.748993055553</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D157" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F157" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H157" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J157">
         <v>11.34</v>
@@ -21415,27 +21465,27 @@
         <v>-6.42</v>
       </c>
     </row>
-    <row r="158" spans="1:49">
+    <row r="158" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43617.75271990741</v>
       </c>
       <c r="B158" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D158" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E158" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="F158" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J158">
         <v>11.41</v>
@@ -21546,27 +21596,27 @@
         <v>-6.41</v>
       </c>
     </row>
-    <row r="159" spans="1:49">
+    <row r="159" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43617.75440972222</v>
       </c>
       <c r="B159" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D159" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E159" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F159" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H159" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J159">
         <v>11.38</v>
@@ -21677,27 +21727,27 @@
         <v>-7.08</v>
       </c>
     </row>
-    <row r="160" spans="1:49">
+    <row r="160" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43617.756053240744</v>
       </c>
       <c r="B160" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C160" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D160" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E160" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J160">
         <v>11.38</v>
@@ -21808,24 +21858,24 @@
         <v>-7.21</v>
       </c>
     </row>
-    <row r="161" spans="1:49">
+    <row r="161" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43617.759108796294</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D161" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F161" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J161">
         <v>11.39</v>
@@ -21936,24 +21986,24 @@
         <v>-7.37</v>
       </c>
     </row>
-    <row r="162" spans="1:49">
+    <row r="162" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43617.761122685188</v>
       </c>
       <c r="B162" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D162" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J162">
         <v>11.37</v>
@@ -22064,27 +22114,27 @@
         <v>-7.38</v>
       </c>
     </row>
-    <row r="163" spans="1:49">
+    <row r="163" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43617.762858796297</v>
       </c>
       <c r="B163" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C163" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D163" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E163" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="F163" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J163">
         <v>11.35</v>
@@ -22195,27 +22245,27 @@
         <v>-7.02</v>
       </c>
     </row>
-    <row r="164" spans="1:49">
+    <row r="164" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43617.764675925922</v>
       </c>
       <c r="B164" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C164" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D164" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E164" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="F164" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H164" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J164">
         <v>11.37</v>
@@ -22326,27 +22376,27 @@
         <v>-6.61</v>
       </c>
     </row>
-    <row r="165" spans="1:49">
+    <row r="165" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43617.767939814818</v>
       </c>
       <c r="B165" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D165" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E165" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="F165" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J165">
         <v>11.34</v>
@@ -22457,27 +22507,27 @@
         <v>-6.99</v>
       </c>
     </row>
-    <row r="166" spans="1:49">
+    <row r="166" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43617.769629629627</v>
       </c>
       <c r="B166" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C166" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D166" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E166" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="F166" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H166" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J166">
         <v>11.37</v>
@@ -22588,27 +22638,27 @@
         <v>-6.64</v>
       </c>
     </row>
-    <row r="167" spans="1:49">
+    <row r="167" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43617.772488425922</v>
       </c>
       <c r="B167" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D167" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E167" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="F167" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J167">
         <v>11.37</v>
@@ -22719,27 +22769,27 @@
         <v>-7.03</v>
       </c>
     </row>
-    <row r="168" spans="1:49">
+    <row r="168" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43617.774699074071</v>
       </c>
       <c r="B168" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D168" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E168" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="F168" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H168" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J168">
         <v>11.38</v>
@@ -22850,27 +22900,27 @@
         <v>-7.12</v>
       </c>
     </row>
-    <row r="169" spans="1:49">
+    <row r="169" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43617.776423611111</v>
       </c>
       <c r="B169" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D169" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="F169" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J169">
         <v>11.41</v>
@@ -22981,27 +23031,27 @@
         <v>-7.28</v>
       </c>
     </row>
-    <row r="170" spans="1:49">
+    <row r="170" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43617.778437499997</v>
       </c>
       <c r="B170" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D170" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="F170" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H170" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J170">
         <v>11.36</v>
@@ -23112,27 +23162,27 @@
         <v>-7.3</v>
       </c>
     </row>
-    <row r="171" spans="1:49">
+    <row r="171" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43617.784062500003</v>
       </c>
       <c r="B171" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D171" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E171" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="F171" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H171" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J171">
         <v>11.43</v>
@@ -23243,27 +23293,27 @@
         <v>-6.85</v>
       </c>
     </row>
-    <row r="172" spans="1:49">
+    <row r="172" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43617.786909722221</v>
       </c>
       <c r="B172" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C172" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D172" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E172" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="F172" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H172" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J172">
         <v>11.35</v>
@@ -23374,27 +23424,27 @@
         <v>-7.52</v>
       </c>
     </row>
-    <row r="173" spans="1:49">
+    <row r="173" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43617.788680555554</v>
       </c>
       <c r="B173" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D173" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E173" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="F173" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J173">
         <v>11.39</v>
@@ -23505,27 +23555,27 @@
         <v>-7.51</v>
       </c>
     </row>
-    <row r="174" spans="1:49">
+    <row r="174" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43617.790555555555</v>
       </c>
       <c r="B174" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D174" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="F174" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H174" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J174">
         <v>11.39</v>
@@ -23636,27 +23686,27 @@
         <v>-6.68</v>
       </c>
     </row>
-    <row r="175" spans="1:49">
+    <row r="175" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43617.792256944442</v>
       </c>
       <c r="B175" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C175" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D175" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E175" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="F175" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J175">
         <v>11.41</v>
@@ -23767,27 +23817,27 @@
         <v>-6.96</v>
       </c>
     </row>
-    <row r="176" spans="1:49">
+    <row r="176" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43617.797754629632</v>
       </c>
       <c r="B176" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D176" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E176" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="F176" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J176">
         <v>11.45</v>
@@ -23898,27 +23948,27 @@
         <v>-6.88</v>
       </c>
     </row>
-    <row r="177" spans="1:49">
+    <row r="177" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43617.799675925926</v>
       </c>
       <c r="B177" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D177" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E177" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="F177" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H177" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J177">
         <v>11.38</v>
@@ -24029,27 +24079,27 @@
         <v>-6.99</v>
       </c>
     </row>
-    <row r="178" spans="1:49">
+    <row r="178" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43617.801307870373</v>
       </c>
       <c r="B178" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C178" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E178" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="F178" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J178">
         <v>11.33</v>
@@ -24160,27 +24210,27 @@
         <v>-7.34</v>
       </c>
     </row>
-    <row r="179" spans="1:49">
+    <row r="179" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43617.803668981483</v>
       </c>
       <c r="B179" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E179" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="F179" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H179" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J179">
         <v>11.37</v>
@@ -24291,27 +24341,27 @@
         <v>-6.84</v>
       </c>
     </row>
-    <row r="180" spans="1:49">
+    <row r="180" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43617.805243055554</v>
       </c>
       <c r="B180" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E180" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="F180" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H180" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J180">
         <v>11.44</v>
@@ -24422,27 +24472,27 @@
         <v>-6.88</v>
       </c>
     </row>
-    <row r="181" spans="1:49">
+    <row r="181" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43617.806701388887</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E181" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F181" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H181" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J181">
         <v>11.35</v>
@@ -24553,27 +24603,27 @@
         <v>-7.12</v>
       </c>
     </row>
-    <row r="182" spans="1:49">
+    <row r="182" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43617.848310185182</v>
       </c>
       <c r="B182" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D182" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E182" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="F182" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J182">
         <v>11.35</v>
@@ -24666,27 +24716,27 @@
         <v>-5.41</v>
       </c>
     </row>
-    <row r="183" spans="1:49">
+    <row r="183" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43617.850057870368</v>
       </c>
       <c r="B183" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D183" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E183" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="F183" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H183" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J183">
         <v>11.37</v>
@@ -24779,27 +24829,27 @@
         <v>-5.55</v>
       </c>
     </row>
-    <row r="184" spans="1:49">
+    <row r="184" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43617.852870370371</v>
       </c>
       <c r="B184" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D184" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E184" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F184" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J184">
         <v>11.33</v>
@@ -24892,27 +24942,27 @@
         <v>-5.85</v>
       </c>
     </row>
-    <row r="185" spans="1:49">
+    <row r="185" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43617.854444444441</v>
       </c>
       <c r="B185" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D185" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E185" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="F185" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H185" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J185">
         <v>11.34</v>
@@ -25005,27 +25055,27 @@
         <v>-5.76</v>
       </c>
     </row>
-    <row r="186" spans="1:49">
+    <row r="186" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43617.856319444443</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C186" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D186" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E186" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="F186" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J186">
         <v>11.35</v>
@@ -25118,27 +25168,27 @@
         <v>-5.53</v>
       </c>
     </row>
-    <row r="187" spans="1:49">
+    <row r="187" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43617.857916666668</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C187" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D187" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E187" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="F187" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H187" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J187">
         <v>11.34</v>
@@ -25231,27 +25281,27 @@
         <v>-5.59</v>
       </c>
     </row>
-    <row r="188" spans="1:49">
+    <row r="188" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43617.862557870372</v>
       </c>
       <c r="B188" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E188" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="F188" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J188">
         <v>11.35</v>
@@ -25344,27 +25394,27 @@
         <v>-5.52</v>
       </c>
     </row>
-    <row r="189" spans="1:49">
+    <row r="189" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43617.864525462966</v>
       </c>
       <c r="B189" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E189" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="F189" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H189" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J189">
         <v>11.32</v>
@@ -25457,27 +25507,27 @@
         <v>-5.79</v>
       </c>
     </row>
-    <row r="190" spans="1:49">
+    <row r="190" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43617.866180555553</v>
       </c>
       <c r="B190" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D190" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E190" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="F190" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J190">
         <v>11.35</v>
@@ -25570,27 +25620,27 @@
         <v>-5.58</v>
       </c>
     </row>
-    <row r="191" spans="1:49">
+    <row r="191" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43617.868252314816</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D191" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E191" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="F191" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H191" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J191">
         <v>11.33</v>
@@ -25683,24 +25733,24 @@
         <v>-5.0199999999999996</v>
       </c>
     </row>
-    <row r="192" spans="1:49">
+    <row r="192" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43617.870694444442</v>
       </c>
       <c r="B192" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C192" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D192" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J192">
         <v>11.34</v>
@@ -25793,27 +25843,27 @@
         <v>-5.49</v>
       </c>
     </row>
-    <row r="193" spans="1:49">
+    <row r="193" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43617.882974537039</v>
       </c>
       <c r="B193" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C193" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D193" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E193" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F193" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H193" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J193">
         <v>11.36</v>
@@ -25906,27 +25956,27 @@
         <v>-5.85</v>
       </c>
     </row>
-    <row r="194" spans="1:49">
+    <row r="194" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43617.884479166663</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D194" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E194" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="F194" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J194">
         <v>11.36</v>
@@ -26019,27 +26069,27 @@
         <v>-5.57</v>
       </c>
     </row>
-    <row r="195" spans="1:49">
+    <row r="195" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43617.886053240742</v>
       </c>
       <c r="B195" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C195" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D195" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E195" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="F195" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H195" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J195">
         <v>11.34</v>
@@ -26132,27 +26182,27 @@
         <v>-6.02</v>
       </c>
     </row>
-    <row r="196" spans="1:49">
+    <row r="196" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43617.888541666667</v>
       </c>
       <c r="B196" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D196" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E196" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="F196" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H196" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J196">
         <v>11.34</v>
@@ -26245,27 +26295,27 @@
         <v>-5.87</v>
       </c>
     </row>
-    <row r="197" spans="1:49">
+    <row r="197" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43617.890243055554</v>
       </c>
       <c r="B197" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D197" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E197" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="F197" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H197" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J197">
         <v>11.39</v>
@@ -26358,27 +26408,27 @@
         <v>-5.98</v>
       </c>
     </row>
-    <row r="198" spans="1:49">
+    <row r="198" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43617.893321759257</v>
       </c>
       <c r="B198" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D198" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E198" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="F198" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J198">
         <v>11.31</v>
@@ -26471,27 +26521,27 @@
         <v>-5.68</v>
       </c>
     </row>
-    <row r="199" spans="1:49">
+    <row r="199" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43617.89503472222</v>
       </c>
       <c r="B199" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C199" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D199" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E199" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="F199" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H199" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J199">
         <v>11.13</v>
@@ -26584,27 +26634,27 @@
         <v>-6.14</v>
       </c>
     </row>
-    <row r="200" spans="1:49">
+    <row r="200" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43617.896597222221</v>
       </c>
       <c r="B200" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C200" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D200" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E200" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="F200" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H200" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J200">
         <v>11.31</v>
@@ -26697,27 +26747,27 @@
         <v>-5.64</v>
       </c>
     </row>
-    <row r="201" spans="1:49">
+    <row r="201" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43617.921886574077</v>
       </c>
       <c r="B201" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C201" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D201" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E201" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="F201" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H201" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J201">
         <v>11.33</v>
@@ -26810,27 +26860,27 @@
         <v>-5.47</v>
       </c>
     </row>
-    <row r="202" spans="1:49">
+    <row r="202" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43617.934618055559</v>
       </c>
       <c r="B202" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D202" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="E202" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="F202" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J202">
         <v>11.35</v>
@@ -26941,27 +26991,27 @@
         <v>-7.48</v>
       </c>
     </row>
-    <row r="203" spans="1:49">
+    <row r="203" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43617.940868055557</v>
       </c>
       <c r="B203" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="F203" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H203" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J203">
         <v>10.92</v>
@@ -27072,27 +27122,27 @@
         <v>-6.98</v>
       </c>
     </row>
-    <row r="204" spans="1:49">
+    <row r="204" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43617.942754629628</v>
       </c>
       <c r="B204" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E204" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J204">
         <v>10.71</v>
@@ -27203,27 +27253,27 @@
         <v>-6.97</v>
       </c>
     </row>
-    <row r="205" spans="1:49">
+    <row r="205" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43617.949548611112</v>
       </c>
       <c r="B205" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E205" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="F205" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J205">
         <v>11.27</v>
@@ -27334,27 +27384,27 @@
         <v>-7.42</v>
       </c>
     </row>
-    <row r="206" spans="1:49">
+    <row r="206" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43617.951249999998</v>
       </c>
       <c r="B206" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E206" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="F206" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H206" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J206">
         <v>11.31</v>
@@ -27465,27 +27515,27 @@
         <v>-7.56</v>
       </c>
     </row>
-    <row r="207" spans="1:49">
+    <row r="207" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43617.95449074074</v>
       </c>
       <c r="B207" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E207" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="F207" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J207">
         <v>11.35</v>
@@ -27578,27 +27628,27 @@
         <v>-5.56</v>
       </c>
     </row>
-    <row r="208" spans="1:49">
+    <row r="208" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43617.970381944448</v>
       </c>
       <c r="B208" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C208" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D208" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E208" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="F208" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J208">
         <v>11.41</v>
@@ -27691,27 +27741,27 @@
         <v>-6.55</v>
       </c>
     </row>
-    <row r="209" spans="1:43">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>43617.971967592595</v>
       </c>
       <c r="B209" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C209" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="D209" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E209" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="F209" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H209" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="J209">
         <v>11.38</v>
@@ -27810,24 +27860,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Geartek.xlsx
+++ b/Geartek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\iviewsense_beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D010F4-002B-45C3-8C44-91B5896FE61E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668CA7F9-B951-44B1-ACA8-0D4B08A6CED3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
